--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCC3</t>
+          <t>20230906Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCB2</t>
+          <t>20230906Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCC3</t>
+          <t>20230906Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCD4</t>
+          <t>20230906Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCD4</t>
+          <t>20230908Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCC3</t>
+          <t>20230908Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCB2</t>
+          <t>20230908Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCA1</t>
+          <t>20230908Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCB2</t>
+          <t>20230911Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCA1</t>
+          <t>20230911Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCD4</t>
+          <t>20230911Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCC3</t>
+          <t>20230911Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCA1</t>
+          <t>20230912Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCB2</t>
+          <t>20230912Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCC3</t>
+          <t>20230912Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCD4</t>
+          <t>20230912Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCA1</t>
+          <t>20230915Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCB2</t>
+          <t>20230915Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCC3</t>
+          <t>20230915Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCD4</t>
+          <t>20230915Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCA1</t>
+          <t>20230918Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCB2</t>
+          <t>20230918Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCC3</t>
+          <t>20230918Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCD4</t>
+          <t>20230918Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCB2</t>
+          <t>20230912Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCA1</t>
+          <t>20240115Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCA1</t>
+          <t>20240115Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCD4</t>
+          <t>20240115Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCC3</t>
+          <t>20240115Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCA1</t>
+          <t>20231027Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCB2</t>
+          <t>20231027Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCC3</t>
+          <t>20231027Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCD4</t>
+          <t>20231027Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCA1</t>
+          <t>20240116Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCB2</t>
+          <t>20240116Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCC3</t>
+          <t>20240116Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCD4</t>
+          <t>20240116Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCA1</t>
+          <t>20240429Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCB2</t>
+          <t>20240429Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCC3</t>
+          <t>20240429Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCD4</t>
+          <t>20240429Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">

--- a/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
+++ b/data/import_excel/定量-结果表非SR样本导入模板E.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="16.5" customHeight="1" s="5">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCA1</t>
+          <t>20240521Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="3" ht="16.5" customHeight="1" s="5">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCB2</t>
+          <t>20240521Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCC3</t>
+          <t>20240521Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCD4</t>
+          <t>20240521Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
